--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tnfsf13-Tnfrsf11b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tnfsf13-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Tnfsf13</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +522,743 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.634123166293367</v>
+        <v>0.637903</v>
       </c>
       <c r="H2">
-        <v>0.634123166293367</v>
+        <v>1.913709</v>
       </c>
       <c r="I2">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714845</v>
       </c>
       <c r="J2">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714844</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.18898490189816</v>
+        <v>0.1085253333333333</v>
       </c>
       <c r="N2">
-        <v>2.18898490189816</v>
+        <v>0.325576</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.04110788357328589</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.04110788357328589</v>
       </c>
       <c r="Q2">
-        <v>1.388086036960037</v>
+        <v>0.06922863570933332</v>
       </c>
       <c r="R2">
-        <v>1.388086036960037</v>
+        <v>0.623057721384</v>
       </c>
       <c r="S2">
-        <v>0.1734102292287197</v>
+        <v>0.005052212856414177</v>
       </c>
       <c r="T2">
-        <v>0.1734102292287197</v>
+        <v>0.005052212856414177</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.164862265629508</v>
+        <v>0.637903</v>
       </c>
       <c r="H3">
-        <v>0.164862265629508</v>
+        <v>1.913709</v>
       </c>
       <c r="I3">
-        <v>0.0450839912395708</v>
+        <v>0.1229013127714845</v>
       </c>
       <c r="J3">
-        <v>0.0450839912395708</v>
+        <v>0.1229013127714844</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.18898490189816</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N3">
-        <v>2.18898490189816</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.8389949644181</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8389949644181001</v>
       </c>
       <c r="Q3">
-        <v>0.360881010355717</v>
+        <v>1.412927927805333</v>
       </c>
       <c r="R3">
-        <v>0.360881010355717</v>
+        <v>12.716351350248</v>
       </c>
       <c r="S3">
-        <v>0.0450839912395708</v>
+        <v>0.1031135825356494</v>
       </c>
       <c r="T3">
-        <v>0.0450839912395708</v>
+        <v>0.1031135825356494</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.637903</v>
+      </c>
+      <c r="H4">
+        <v>1.913709</v>
+      </c>
+      <c r="I4">
+        <v>0.1229013127714845</v>
+      </c>
+      <c r="J4">
+        <v>0.1229013127714844</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.31653</v>
+      </c>
+      <c r="N4">
+        <v>0.9495899999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="P4">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="Q4">
+        <v>0.20191543659</v>
+      </c>
+      <c r="R4">
+        <v>1.81723892931</v>
+      </c>
+      <c r="S4">
+        <v>0.0147355173794209</v>
+      </c>
+      <c r="T4">
+        <v>0.0147355173794209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.170281</v>
+      </c>
+      <c r="H5">
+        <v>0.510843</v>
+      </c>
+      <c r="I5">
+        <v>0.03280711713229307</v>
+      </c>
+      <c r="J5">
+        <v>0.03280711713229307</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1085253333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.325576</v>
+      </c>
+      <c r="O5">
+        <v>0.04110788357328589</v>
+      </c>
+      <c r="P5">
+        <v>0.04110788357328589</v>
+      </c>
+      <c r="Q5">
+        <v>0.01847980228533333</v>
+      </c>
+      <c r="R5">
+        <v>0.166318220568</v>
+      </c>
+      <c r="S5">
+        <v>0.001348631151449456</v>
+      </c>
+      <c r="T5">
+        <v>0.001348631151449456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.170281</v>
+      </c>
+      <c r="H6">
+        <v>0.510843</v>
+      </c>
+      <c r="I6">
+        <v>0.03280711713229307</v>
+      </c>
+      <c r="J6">
+        <v>0.03280711713229307</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.214957333333333</v>
+      </c>
+      <c r="N6">
+        <v>6.644871999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.8389949644181</v>
+      </c>
+      <c r="P6">
+        <v>0.8389949644181001</v>
+      </c>
+      <c r="Q6">
+        <v>0.3771651496773333</v>
+      </c>
+      <c r="R6">
+        <v>3.394486347096</v>
+      </c>
+      <c r="S6">
+        <v>0.02752500607106866</v>
+      </c>
+      <c r="T6">
+        <v>0.02752500607106867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.170281</v>
+      </c>
+      <c r="H7">
+        <v>0.510843</v>
+      </c>
+      <c r="I7">
+        <v>0.03280711713229307</v>
+      </c>
+      <c r="J7">
+        <v>0.03280711713229307</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.31653</v>
+      </c>
+      <c r="N7">
+        <v>0.9495899999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="P7">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="Q7">
+        <v>0.05389904493</v>
+      </c>
+      <c r="R7">
+        <v>0.48509140437</v>
+      </c>
+      <c r="S7">
+        <v>0.00393347990977495</v>
+      </c>
+      <c r="T7">
+        <v>0.00393347990977495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.407124666666667</v>
+      </c>
+      <c r="H8">
+        <v>10.221374</v>
+      </c>
+      <c r="I8">
+        <v>0.6564322386153376</v>
+      </c>
+      <c r="J8">
+        <v>0.6564322386153377</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1085253333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.325576</v>
+      </c>
+      <c r="O8">
+        <v>0.04110788357328589</v>
+      </c>
+      <c r="P8">
+        <v>0.04110788357328589</v>
+      </c>
+      <c r="Q8">
+        <v>0.3697593401582222</v>
+      </c>
+      <c r="R8">
+        <v>3.327834061424</v>
+      </c>
+      <c r="S8">
+        <v>0.02698454003875072</v>
+      </c>
+      <c r="T8">
+        <v>0.02698454003875073</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.407124666666667</v>
+      </c>
+      <c r="H9">
+        <v>10.221374</v>
+      </c>
+      <c r="I9">
+        <v>0.6564322386153376</v>
+      </c>
+      <c r="J9">
+        <v>0.6564322386153377</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.214957333333333</v>
+      </c>
+      <c r="N9">
+        <v>6.644871999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.8389949644181</v>
+      </c>
+      <c r="P9">
+        <v>0.8389949644181001</v>
+      </c>
+      <c r="Q9">
+        <v>7.546635766014221</v>
+      </c>
+      <c r="R9">
+        <v>67.919721894128</v>
+      </c>
+      <c r="S9">
+        <v>0.5507433426799688</v>
+      </c>
+      <c r="T9">
+        <v>0.5507433426799691</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.407124666666667</v>
+      </c>
+      <c r="H10">
+        <v>10.221374</v>
+      </c>
+      <c r="I10">
+        <v>0.6564322386153376</v>
+      </c>
+      <c r="J10">
+        <v>0.6564322386153377</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.31653</v>
+      </c>
+      <c r="N10">
+        <v>0.9495899999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="P10">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="Q10">
+        <v>1.07845717074</v>
+      </c>
+      <c r="R10">
+        <v>9.706114536659999</v>
+      </c>
+      <c r="S10">
+        <v>0.07870435589661798</v>
+      </c>
+      <c r="T10">
+        <v>0.07870435589661799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.975059</v>
+      </c>
+      <c r="H11">
+        <v>2.925177</v>
+      </c>
+      <c r="I11">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="J11">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1085253333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.325576</v>
+      </c>
+      <c r="O11">
+        <v>0.04110788357328589</v>
+      </c>
+      <c r="P11">
+        <v>0.04110788357328589</v>
+      </c>
+      <c r="Q11">
+        <v>0.1058186029946667</v>
+      </c>
+      <c r="R11">
+        <v>0.9523674269519999</v>
+      </c>
+      <c r="S11">
+        <v>0.007722499526671533</v>
+      </c>
+      <c r="T11">
+        <v>0.007722499526671533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2.85779519234462</v>
-      </c>
-      <c r="H4">
-        <v>2.85779519234462</v>
-      </c>
-      <c r="I4">
-        <v>0.7815057795317095</v>
-      </c>
-      <c r="J4">
-        <v>0.7815057795317095</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>2.18898490189816</v>
-      </c>
-      <c r="N4">
-        <v>2.18898490189816</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>6.255670528759522</v>
-      </c>
-      <c r="R4">
-        <v>6.255670528759522</v>
-      </c>
-      <c r="S4">
-        <v>0.7815057795317095</v>
-      </c>
-      <c r="T4">
-        <v>0.7815057795317095</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.975059</v>
+      </c>
+      <c r="H12">
+        <v>2.925177</v>
+      </c>
+      <c r="I12">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="J12">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.214957333333333</v>
+      </c>
+      <c r="N12">
+        <v>6.644871999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.8389949644181</v>
+      </c>
+      <c r="P12">
+        <v>0.8389949644181001</v>
+      </c>
+      <c r="Q12">
+        <v>2.159714082482666</v>
+      </c>
+      <c r="R12">
+        <v>19.437426742344</v>
+      </c>
+      <c r="S12">
+        <v>0.157613033131413</v>
+      </c>
+      <c r="T12">
+        <v>0.157613033131413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.975059</v>
+      </c>
+      <c r="H13">
+        <v>2.925177</v>
+      </c>
+      <c r="I13">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="J13">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.31653</v>
+      </c>
+      <c r="N13">
+        <v>0.9495899999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="P13">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="Q13">
+        <v>0.30863542527</v>
+      </c>
+      <c r="R13">
+        <v>2.77771882743</v>
+      </c>
+      <c r="S13">
+        <v>0.02252379882280027</v>
+      </c>
+      <c r="T13">
+        <v>0.02252379882280027</v>
       </c>
     </row>
   </sheetData>
